--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-539565.7807741862</v>
+        <v>-542078.1891555514</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>252.7493895559471</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>216.4780110267874</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>330.0561568087669</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>62.45559856403106</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>7.71195881540414</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>55.98090095918209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>133.2099892451615</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>330.7598727037301</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1054,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>18.54938132396402</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>27.00971856836598</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>299.4782125119767</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>67.88571179025713</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>152.7913254527323</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>129.8382150550495</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="T13" t="n">
-        <v>26.13627195705896</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>140.939995452456</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.613741235231367</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>29.95900124023935</v>
       </c>
       <c r="E19" t="n">
-        <v>9.146142788179368</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>10.74993283584276</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>224.7837165195618</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>211.6917002284523</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>108.3106907504117</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,10 +3007,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>26.703916880933</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,7 +3670,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002292</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1887.813801820605</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C2" t="n">
-        <v>1518.851284880193</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D2" t="n">
-        <v>1160.585586273442</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E2" t="n">
-        <v>774.7973336751982</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F2" t="n">
-        <v>363.8114288855906</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>363.8114288855906</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796416</v>
+        <v>1853.310728577824</v>
       </c>
       <c r="Y2" t="n">
-        <v>1887.813801820605</v>
+        <v>1519.920671195231</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>834.3750240241689</v>
+        <v>1006.787050055405</v>
       </c>
       <c r="C4" t="n">
-        <v>665.438841096262</v>
+        <v>837.8508671274984</v>
       </c>
       <c r="D4" t="n">
-        <v>515.3222016839262</v>
+        <v>687.7342277151627</v>
       </c>
       <c r="E4" t="n">
-        <v>367.4091081015331</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>220.5191606036227</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.362432603173</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X4" t="n">
-        <v>1236.816067997939</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y4" t="n">
-        <v>1016.023488854409</v>
+        <v>1188.435514885645</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281155</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744046</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>654.0504646744046</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>243.064559884797</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285688</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4659,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>380.0519063245717</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>380.0519063245717</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>380.0519063245717</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>232.1388127421786</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>85.24886524426827</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
         <v>66.5121164321834</v>
@@ -4723,52 +4723,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1326.594608541189</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1071.910120335302</v>
       </c>
       <c r="W7" t="n">
-        <v>1424.011591242373</v>
+        <v>782.4929502983416</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>782.4929502983416</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>561.7003711548115</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2232.598233480554</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C8" t="n">
-        <v>1863.635716540142</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D8" t="n">
-        <v>1505.370017933392</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E8" t="n">
-        <v>1119.581765335148</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>708.5958605455401</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y8" t="n">
-        <v>2619.198073544676</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>531.7821255545682</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8459426266613</v>
+        <v>774.7644039315074</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1706.314378669203</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1706.314378669203</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1706.314378669203</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1451.629890463316</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W10" t="n">
-        <v>1162.212720426355</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X10" t="n">
-        <v>934.2231695283381</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4305903848079</v>
+        <v>929.0990761059845</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T13" t="n">
-        <v>2420.562808876161</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>2131.487582220359</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1876.803094014472</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1587.385923977512</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1359.396373079494</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5267,13 +5267,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5282,7 +5282,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.9555321712464</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433395</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
         <v>407.9027098310023</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014862</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
@@ -5522,16 +5522,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876702</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782968</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038354</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797756</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>983.34034846144</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179099</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5966,37 +5966,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,10 +6069,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M24" t="n">
         <v>680.0291294438171</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1983.232545256808</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1694.157318601005</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1057.95525898292</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>889.0190760550126</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7093,49 +7093,49 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
         <v>889.3209912987577</v>
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7190,13 +7190,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,19 +7597,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,31 +7807,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>41.85837483137331</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>56.18178184728666</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>83.97836408253812</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>169.7287544298551</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>73.62417772602069</v>
       </c>
       <c r="T13" t="n">
-        <v>191.2691783702293</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>111.197647871372</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.9709121168634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>118.656471777973</v>
       </c>
       <c r="E19" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012339</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>214.9597225531944</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.9259388694754023</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>5.713750098835988</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>40.30478226780065</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,10 +24895,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>191.8807364711618</v>
       </c>
     </row>
     <row r="38">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>229059.6437758985</v>
+        <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
@@ -26326,7 +26326,7 @@
         <v>262322.644899252</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
         <v>262322.644899252</v>
@@ -26335,22 +26335,22 @@
         <v>262322.6448992519</v>
       </c>
       <c r="J2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058923</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23396.52241078395</v>
+        <v>23396.52241078387</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813259</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813251</v>
@@ -26436,28 +26436,28 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="L4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.94754987466</v>
+        <v>18547.94754987462</v>
       </c>
       <c r="O4" t="n">
         <v>18547.94754987466</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987468</v>
+        <v>18547.94754987467</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1231015.564923871</v>
+        <v>-1231306.172088717</v>
       </c>
       <c r="C6" t="n">
-        <v>69160.51158636628</v>
+        <v>69160.51158636669</v>
       </c>
       <c r="D6" t="n">
-        <v>69160.51158636635</v>
+        <v>69160.51158636608</v>
       </c>
       <c r="E6" t="n">
-        <v>-174769.4350187918</v>
+        <v>-174804.1729442273</v>
       </c>
       <c r="F6" t="n">
-        <v>150643.0267885638</v>
+        <v>150608.2888631279</v>
       </c>
       <c r="G6" t="n">
-        <v>150643.0267885636</v>
+        <v>150608.2888631279</v>
       </c>
       <c r="H6" t="n">
-        <v>150643.0267885636</v>
+        <v>150608.2888631279</v>
       </c>
       <c r="I6" t="n">
-        <v>150643.0267885634</v>
+        <v>150608.2888631276</v>
       </c>
       <c r="J6" t="n">
-        <v>-66888.17560871359</v>
+        <v>-66922.9135341496</v>
       </c>
       <c r="K6" t="n">
-        <v>150643.0267885636</v>
+        <v>150608.2888631279</v>
       </c>
       <c r="L6" t="n">
-        <v>150643.0267885636</v>
+        <v>150608.2888631279</v>
       </c>
       <c r="M6" t="n">
-        <v>65587.99885305182</v>
+        <v>65553.26092761598</v>
       </c>
       <c r="N6" t="n">
         <v>125698.7938084706</v>
@@ -26561,7 +26561,7 @@
         <v>145126.5118021021</v>
       </c>
       <c r="P6" t="n">
-        <v>145126.5118021023</v>
+        <v>145126.5118021024</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>153.2530896516816</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>158.3138494436241</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>277.7117364082919</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>55.4780659523235</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>147.4764269350642</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>198.6999368206712</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>111.4435131414768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>281.3552569271559</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>27.04065472920499</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>59.93081027639235</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28488,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.948695672725</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>550.2163373881178</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>362.180468412921</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>314.4610577451606</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>344.6306853939237</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>216.0947523943934</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>342.8454457931488</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>349.7190218511039</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507067</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>416.2419299737876</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>224.339029438562</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629545</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>206.7892464195648</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>77.54037261451923</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>205.0040068187898</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>207.1227774066595</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
